--- a/extra/Excel_Examples/PMSG_5.0_discRotor_MW.xlsx
+++ b/extra/Excel_Examples/PMSG_5.0_discRotor_MW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>Parameters</t>
   </si>
@@ -242,12 +242,6 @@
   </si>
   <si>
     <t>Total Mass</t>
-  </si>
-  <si>
-    <t>Stator Mass</t>
-  </si>
-  <si>
-    <t>Rotor Mass</t>
   </si>
   <si>
     <t>Total Material Cost</t>
@@ -607,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>320.1018670190358</v>
+        <v>350.3183978482227</v>
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
@@ -682,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>450.2247198104435</v>
+        <v>463.8101168501009</v>
       </c>
       <c r="D5" t="n">
         <v>540.3539364174443</v>
@@ -699,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>149.7620627808229</v>
+        <v>147.2009136562495</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s">
@@ -714,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>105.0082341683899</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s"/>
@@ -727,10 +721,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3460099754043875</v>
+        <v>0.3123522561933906</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3592390036017667</v>
+        <v>0.3597091942887128</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -744,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>1.595388771022322</v>
+        <v>1.293894149508977</v>
       </c>
       <c r="D9" t="n">
-        <v>30.00108444638316</v>
+        <v>33.13868455201618</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -761,10 +755,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>3.095834182336479</v>
+        <v>2.888599069881599</v>
       </c>
       <c r="D10" t="n">
-        <v>3.134951707217298</v>
+        <v>3.13905489501701</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -778,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3331787338566438</v>
+        <v>0.3191801916611151</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3445193105551765</v>
+        <v>0.3451329441408277</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -795,10 +789,10 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>3.408510368492276</v>
+        <v>3.86457769843454</v>
       </c>
       <c r="D12" t="n">
-        <v>30.00108444638316</v>
+        <v>33.13868455201618</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -812,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>6.979867301629024</v>
+        <v>6.989236364703048</v>
       </c>
       <c r="D13" t="s"/>
       <c r="E13" t="s">
@@ -827,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>7.214916985652464</v>
+        <v>7.226541126254326</v>
       </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s">
@@ -842,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>1.500054222319158</v>
+        <v>1.50610392747812</v>
       </c>
       <c r="D15" t="s"/>
       <c r="E15" t="s">
@@ -857,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2149115674404099</v>
+        <v>0.2154890532940375</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -872,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>5.724035676795321</v>
+        <v>5.35041616429095</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -887,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>69.99910858871141</v>
+        <v>75.41515006134445</v>
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s">
@@ -902,7 +896,7 @@
         <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>59.95991130044406</v>
+        <v>60.34976337949755</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s">
@@ -917,7 +911,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>10.4751113874981</v>
+        <v>11.27945220079815</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s">
@@ -932,7 +926,7 @@
         <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>12.80291391805323</v>
+        <v>13.78599713430885</v>
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s">
@@ -947,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>84.99294780542105</v>
+        <v>84.24799431221155</v>
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s">
@@ -962,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>55.00572614718417</v>
+        <v>54.57896875673009</v>
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s">
@@ -977,7 +971,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>10.25781488752531</v>
+        <v>9.010020200179159</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
@@ -992,7 +986,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>48.99937601209798</v>
+        <v>52.79060504294111</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
@@ -1007,7 +1001,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7857210206050231</v>
+        <v>0.7421840632580163</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -1024,7 +1018,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2528247828783625</v>
+        <v>0.2595654693758352</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -1041,7 +1035,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3515905083379729</v>
+        <v>0.3605982966915776</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -1058,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6925918383011658</v>
+        <v>0.6542151873878631</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -1075,7 +1069,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07389294279595296</v>
+        <v>0.08569811922229657</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -1092,10 +1086,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>1.428583673827315</v>
+        <v>1.34942556956003</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7857210206050231</v>
+        <v>0.7421840632580163</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -1109,7 +1103,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -1126,7 +1120,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="n">
-        <v>31.66166666666667</v>
+        <v>29.44333333333333</v>
       </c>
       <c r="D33" t="s"/>
       <c r="E33" t="s">
@@ -1141,7 +1135,7 @@
         <v>46</v>
       </c>
       <c r="C34" t="n">
-        <v>2416.424849880765</v>
+        <v>2248.684175720249</v>
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s">
@@ -1156,7 +1150,7 @@
         <v>48</v>
       </c>
       <c r="C35" t="n">
-        <v>697.1576058498886</v>
+        <v>751.8426396330204</v>
       </c>
       <c r="D35" t="s">
         <v>49</v>
@@ -1173,7 +1167,7 @@
         <v>51</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1505582341045657</v>
+        <v>0.1311197493865112</v>
       </c>
       <c r="D36" t="s"/>
       <c r="E36" t="s">
@@ -1188,7 +1182,7 @@
         <v>53</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01211954769926133</v>
+        <v>0.01157515433523398</v>
       </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s"/>
@@ -1201,7 +1195,7 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>942</v>
+        <v>876</v>
       </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s">
@@ -1216,7 +1210,7 @@
         <v>56</v>
       </c>
       <c r="C39" t="n">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s">
@@ -1231,7 +1225,7 @@
         <v>58</v>
       </c>
       <c r="C40" t="n">
-        <v>187.1061376337293</v>
+        <v>202.9023783684724</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
@@ -1248,7 +1242,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="n">
-        <v>3.726000732346971</v>
+        <v>3.705440250028355</v>
       </c>
       <c r="D41" t="s">
         <v>62</v>
@@ -1265,7 +1259,7 @@
         <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>59.89834590338991</v>
+        <v>59.99035800886121</v>
       </c>
       <c r="D42" t="s">
         <v>65</v>
@@ -1282,7 +1276,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="n">
-        <v>93.00744683163589</v>
+        <v>93.0028271558225</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
@@ -1299,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="C44" t="n">
-        <v>45.15359095431443</v>
+        <v>48.69221677834128</v>
       </c>
       <c r="D44" t="s"/>
       <c r="E44" t="s">
@@ -1314,7 +1308,7 @@
         <v>72</v>
       </c>
       <c r="C45" t="n">
-        <v>2.001035098265762</v>
+        <v>1.701657180116865</v>
       </c>
       <c r="D45" t="s"/>
       <c r="E45" t="s">
@@ -1329,7 +1323,7 @@
         <v>73</v>
       </c>
       <c r="C46" t="n">
-        <v>5.584590080870156</v>
+        <v>5.719434708402116</v>
       </c>
       <c r="D46" t="s"/>
       <c r="E46" t="s">
@@ -1344,7 +1338,7 @@
         <v>74</v>
       </c>
       <c r="C47" t="n">
-        <v>64.79540742406211</v>
+        <v>66.45449801304258</v>
       </c>
       <c r="D47" t="s"/>
       <c r="E47" t="s">
@@ -1359,7 +1353,7 @@
         <v>75</v>
       </c>
       <c r="C48" t="n">
-        <v>117.5346235575125</v>
+        <v>122.5678066799028</v>
       </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s">
@@ -1374,41 +1368,11 @@
         <v>76</v>
       </c>
       <c r="C49" t="n">
-        <v>71.41197167450547</v>
+        <v>249.4231399130319</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
         <v>77</v>
-      </c>
-      <c r="C50" t="n">
-        <v>46.122651883007</v>
-      </c>
-      <c r="D50" t="s"/>
-      <c r="E50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="n">
-        <v>270.5502179573797</v>
-      </c>
-      <c r="D51" t="s"/>
-      <c r="E51" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
